--- a/Bug转用例/bug转用例记录.xlsx
+++ b/Bug转用例/bug转用例记录.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
-    <sheet name="iOS" sheetId="2" r:id="rId2"/>
-    <sheet name="Android" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +47,10 @@
     <t>日程详情页面描述不支持换行，在周视图点击出来是正常的</t>
   </si>
   <si>
-    <t>是否计入禅道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程落地页：点击日程详情右上角下拉箭头，在新页面打开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +80,6 @@
   </si>
   <si>
     <t>微信右上角分享给好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些界面可以下拉刷新后查看是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5606-发送动态或投票，点击完成后弹出选择分享范围弹层，此时点击取消，再点击完成，分享范围弹层不再跳出，不能发送该动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5695-智能搜索-通讯录-点击某个用户发起聊天，右上角添加用户变成群聊天后，会崩溃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能搜索-通讯录-点击某个用户发起聊天，右上角添加用户变成群聊天后，会崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,23 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务中上传了两个同名但内容不同的文件，安卓端打开看到的内容是相同的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意内容被删除后，从消息入口的点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意内容被删除后，从消息入口的点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6007-智能搜索-所有模块的智能搜索后，筛选“与好友协作”后，再下拉刷新界面，会提示“数据操作异常”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,12 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,18 +692,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -762,18 +718,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -785,22 +741,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>5598</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -820,13 +776,13 @@
         <v>5584</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,19 +793,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -860,19 +816,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -883,19 +839,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>5837</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -906,22 +862,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -932,19 +888,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>5939</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,19 +911,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>5576</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -978,19 +934,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>5524</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
@@ -1001,22 +957,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
@@ -1027,22 +983,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1053,19 +1009,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>5889</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,22 +1032,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>5695</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1102,19 +1058,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
         <v>5606</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1125,19 +1081,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1148,22 +1104,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
         <v>6007</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1174,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1">
         <v>5559</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1197,22 +1153,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>5804</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1223,22 +1179,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1">
         <v>5885</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,22 +1205,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
         <v>5924</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1275,19 +1231,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>5983</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1298,22 +1254,22 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
         <v>5594</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1324,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <v>5827</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1350,22 +1306,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <v>5951</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1376,22 +1332,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
         <v>5956</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1402,22 +1358,22 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
         <v>5256</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1443,184 +1399,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="120.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <f>Web!E145888</f>
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"Web,iOS,Android"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="4" max="4" width="100.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"Web,iOS,Android"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Bug转用例/bug转用例记录.xlsx
+++ b/Bug转用例/bug转用例记录.xlsx
@@ -672,13 +672,14 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
     <col min="7" max="7" width="78.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="35.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -1361,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1">
         <v>5256</v>

--- a/Bug转用例/bug转用例记录.xlsx
+++ b/Bug转用例/bug转用例记录.xlsx
@@ -55,17 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子任务的截止时间不能晚于母任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在日程页面双击创建日程时无法直接选择至xx年x月x日</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
@@ -96,18 +89,6 @@
   </si>
   <si>
     <t>关联任务时，子任务截止日期晚于母任务截止日期时，不会自动截到母任务的截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在任务消息中回复项目讨论并转发到动态，再从动态中点击该项目，却提示“任务不存在”，其实这是个项目，不是任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识-重命名文件夹名称后，文件夹内的文件的“修改时间”随着文件夹的修改时间一起变更了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组/聊天中添加网络下的群组成员，当群组中含有“明道小秘书”时，全选成员添加无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,6 +118,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>任务中上传了两个同名但内容不同的文件，安卓端打开看到的内容是相同的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意内容被删除后，从消息入口的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>微信收到的日程变更通知，点进去显示错误</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>项目讨论中有“@项目全体成员”，分享到动态后，文字显示有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @任务成员、@项目成员时转发到动态，查看动态墙显示是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下载列表中的操作</t>
+  </si>
+  <si>
+    <t>删剩最后一条数据</t>
+  </si>
+  <si>
+    <t>知识-已下载列表中的图片，预览页面右上角点击“分享”按钮，会闪退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目最后一个看板，会提示：数据操作异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了分类的重复日程，删除分类后，变成独立的日程颜色会变成灰色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些界面可以下拉刷新后查看是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程确认后详情界面没法退出</t>
+  </si>
+  <si>
+    <t>消息墙中的所有消息，人名hover上去显示，群组名称hover上去显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识的文件预览时会显示分享按钮，修改分享的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识详情界面点击“查看权限说明”（包括任务或项目界面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务不设定到期时间，在任务界面的显示异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程落地页的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种链接的hover效果；小铃铛的hover显示</t>
+  </si>
+  <si>
+    <t>预览层的操作</t>
+  </si>
+  <si>
+    <t>知识、任务权限说明，链接跳转是否正确</t>
+  </si>
+  <si>
+    <t>已完成任务的时间查看</t>
+  </si>
+  <si>
+    <t>所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天/群组</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>智能搜索</t>
+  </si>
+  <si>
+    <t>在日程页面双击创建日程时无法直接选择至xx年x月x日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务的截止时间不能晚于母任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任务消息中回复项目讨论并转发到动态，再从动态中点击该项目，却提示“任务不存在”，其实这是个项目，不是任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识-重命名文件夹名称后，文件夹内的文件的“修改时间”随着文件夹的修改时间一起变更了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组/聊天中添加网络下的群组成员，当群组中含有“明道小秘书”时，全选成员添加无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>从任务消息中点击已被移除的项目，点击“列表”、“看板”中的“+”，新建任务时，会闪退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,129 +271,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务中上传了两个同名但内容不同的文件，安卓端打开看到的内容是相同的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意内容被删除后，从消息入口的点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能搜索-所有模块的智能搜索后，筛选“与好友协作”后，再下拉刷新界面，会提示“数据操作异常”</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜集者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellie</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>微信收到的日程变更通知，点进去显示错误</t>
-  </si>
-  <si>
-    <t>Jo</t>
-  </si>
-  <si>
-    <t>项目讨论中有“@项目全体成员”，分享到动态后，文字显示有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @任务成员、@项目成员时转发到动态，查看动态墙显示是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已下载列表中的操作</t>
-  </si>
-  <si>
-    <t>删剩最后一条数据</t>
-  </si>
-  <si>
-    <t>知识-已下载列表中的图片，预览页面右上角点击“分享”按钮，会闪退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目最后一个看板，会提示：数据操作异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置了分类的重复日程，删除分类后，变成独立的日程颜色会变成灰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些界面可以下拉刷新后查看是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程确认后详情界面没法退出</t>
-  </si>
-  <si>
-    <t>消息墙中的所有消息，人名hover上去显示，群组名称hover上去显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识的文件预览时会显示分享按钮，修改分享的设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识详情界面点击“查看权限说明”（包括任务或项目界面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务不设定到期时间，在任务界面的显示异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程落地页的操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种链接的hover效果；小铃铛的hover显示</t>
-  </si>
-  <si>
-    <t>预览层的操作</t>
-  </si>
-  <si>
-    <t>知识、任务权限说明，链接跳转是否正确</t>
-  </si>
-  <si>
-    <t>已完成任务的时间查看</t>
-  </si>
-  <si>
-    <t>所属模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天/群组</t>
-  </si>
-  <si>
-    <t>动态</t>
-  </si>
-  <si>
-    <t>知识</t>
-  </si>
-  <si>
-    <t>任务</t>
-  </si>
-  <si>
-    <t>日程</t>
-  </si>
-  <si>
-    <t>日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料</t>
-  </si>
-  <si>
-    <t>消息</t>
-  </si>
-  <si>
-    <t>智能搜索</t>
   </si>
 </sst>
 </file>
@@ -672,8 +673,8 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -719,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -742,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -751,10 +752,10 @@
         <v>5598</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -768,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -777,13 +778,13 @@
         <v>5584</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,19 +795,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -817,19 +818,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -840,19 +841,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>5837</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -863,22 +864,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -889,19 +890,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>5939</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,19 +913,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>5576</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -935,19 +936,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>5524</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
@@ -958,22 +959,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
@@ -984,22 +985,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1010,19 +1011,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>5889</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1033,22 +1037,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>5695</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1059,19 +1060,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>5606</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1082,19 +1083,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1105,22 +1106,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
         <v>6007</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1131,19 +1132,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>5559</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1154,22 +1155,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
         <v>5804</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1180,22 +1181,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
         <v>5885</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1206,22 +1207,22 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>5924</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1232,19 +1233,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1">
         <v>5983</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1255,22 +1256,22 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1">
         <v>5594</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1281,22 +1282,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
         <v>5827</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1307,22 +1308,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
         <v>5951</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1333,22 +1334,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1">
         <v>5956</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1359,22 +1360,22 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
         <v>5256</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
